--- a/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
+++ b/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\TTLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60B419-11F2-43F1-885F-AC9C7F6CA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E566B1-2529-42A5-8CE3-92B78F250AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ships</t>
   </si>
@@ -91,22 +91,13 @@
     <t>https://jgcri.github.io/gcam-doc/choice.html</t>
   </si>
   <si>
-    <t>Table 5 Generalized Cost Coefficient Calibration</t>
-  </si>
-  <si>
-    <t>United States EPA</t>
-  </si>
-  <si>
-    <t>Consumer Vehicle Choice Model Documentation</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P100EZ37.PDF?Dockey=P100EZ37.PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We choose a value of -3 for passenger vehicles and a value of -5 for other vehicle types, </t>
-  </si>
-  <si>
-    <t>based on the ranges in Table 5 of the cited EPA documentation.</t>
+    <t>We choose a value of -5 for most vehicle types except freight LDVs and HDVs</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>which we assign values of -8 and -10 due to their larger price sensitivity.</t>
   </si>
 </sst>
 </file>
@@ -782,20 +773,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1224,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,234 +1229,62 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,7 +1300,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1498,13 +1311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1512,32 +1325,32 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>-5</v>
       </c>
-      <c r="C2" s="2">
-        <v>-5</v>
+      <c r="C2">
+        <v>-8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>-5</v>
       </c>
-      <c r="C3" s="2">
-        <v>-5</v>
+      <c r="C3">
+        <v>-10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>-5</v>
       </c>
     </row>
@@ -1545,10 +1358,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>-5</v>
       </c>
     </row>
@@ -1556,10 +1369,10 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>-5</v>
       </c>
     </row>
@@ -1567,10 +1380,10 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-5</v>
       </c>
     </row>
